--- a/tests/multialgorithm/fixtures/validation/cases/stochastic/00007/00007-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/cases/stochastic/00007/00007-wc_lang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27300" windowHeight="6960" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25120" windowHeight="5680" tabRatio="989" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Functions" sheetId="8" r:id="rId8"/>
     <sheet name="Reactions" sheetId="9" r:id="rId9"/>
     <sheet name="Rate laws" sheetId="10" r:id="rId10"/>
-    <sheet name="Biomass components" sheetId="11" r:id="rId11"/>
-    <sheet name="Biomass reactions" sheetId="12" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="Parameters" sheetId="13" r:id="rId13"/>
     <sheet name="Stop conditions" sheetId="14" r:id="rId14"/>
     <sheet name="References" sheetId="15" r:id="rId15"/>
@@ -783,7 +783,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1164,7 +1164,7 @@
   <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1176,7 +1176,7 @@
     <col min="6" max="6" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
@@ -1767,7 +1767,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1833,7 +1833,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
